--- a/lib_tc_bak/com.aislend.UserRegistration.xlsx
+++ b/lib_tc_bak/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16132" uniqueCount="319">
   <si>
     <t>Action</t>
   </si>
@@ -806,6 +806,384 @@
   </si>
   <si>
     <t>Title verified succesfully: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>VerifyText: Create New Account</t>
+  </si>
+  <si>
+    <t>SetText: Akash</t>
+  </si>
+  <si>
+    <t>SetText: sangal</t>
+  </si>
+  <si>
+    <t>ClearText: null</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter your email address.</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter your password.</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter your confirm password.</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>SetText: komal@bravvura.in</t>
+  </si>
+  <si>
+    <t>SetText: komal@</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>SetText: 1234567</t>
+  </si>
+  <si>
+    <t>VerifyText: Please make sure your passwords match.</t>
+  </si>
+  <si>
+    <t>SetText: komal@d.com</t>
+  </si>
+  <si>
+    <t>SetText: 123</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter 6 or more characters. Leading and trailing spaces will be ignored.</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash Sangal</t>
+  </si>
+  <si>
+    <t>VerifyText: A customer with the same email already exists in an associated website.</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery: Title not verified</t>
+  </si>
+  <si>
+    <t>Method has not yet been implemented (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{appPackage=com.android.chrome, noReset=true, deviceName=5a0c7cb7d140, fullReset=false, platform=LINUX, deviceUDID=5a0c7cb7d140, desired={appPackage=com.android.chrome, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, noReset=true, acceptSslCerts=true, platformVersion=7.1.2, automationName=Appium, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}, udid=5a0c7cb7d140, platformName=Android, deviceName=Redmi111, fullReset=false}, acceptSslCerts=true, platformVersion=7.1.2, webStorageEnabled=false, automationName=Appium, takesScreenshot=true, javascriptEnabled=true, udid=5a0c7cb7d140, platformName=Android, deviceManufacturer=Xiaomi, deviceScreenSize=720x1280, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, locationContextEnabled=false, deviceModel=Redmi 4, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}}]
+Session ID: 1d2b8c36-2476-43a3-a92d-f188cfc82631</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>Method is not implemented (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{appPackage=com.android.chrome, noReset=true, deviceName=5a0c7cb7d140, fullReset=false, platform=LINUX, deviceUDID=5a0c7cb7d140, desired={appPackage=com.android.chrome, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, noReset=true, acceptSslCerts=true, platformVersion=7.1.2, automationName=Appium, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}, udid=5a0c7cb7d140, platformName=Android, deviceName=Redmi111, fullReset=false}, acceptSslCerts=true, platformVersion=7.1.2, webStorageEnabled=false, automationName=Appium, takesScreenshot=true, javascriptEnabled=true, udid=5a0c7cb7d140, platformName=Android, deviceManufacturer=Xiaomi, deviceScreenSize=720x1280, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, locationContextEnabled=false, deviceModel=Redmi 4, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}}]
+Session ID: 1d2b8c36-2476-43a3-a92d-f188cfc82631</t>
+  </si>
+  <si>
+    <t>text not verified: Create New Account</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //h3[contains(text(),'Create New Account')] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{appPackage=com.android.chrome, noReset=true, deviceName=5a0c7cb7d140, fullReset=false, platform=LINUX, deviceUDID=5a0c7cb7d140, desired={appPackage=com.android.chrome, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, noReset=true, acceptSslCerts=true, platformVersion=7.1.2, automationName=Appium, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}, udid=5a0c7cb7d140, platformName=Android, deviceName=Redmi111, fullReset=false}, acceptSslCerts=true, platformVersion=7.1.2, webStorageEnabled=false, automationName=Appium, takesScreenshot=true, javascriptEnabled=true, udid=5a0c7cb7d140, platformName=Android, deviceManufacturer=Xiaomi, deviceScreenSize=720x1280, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, locationContextEnabled=false, deviceModel=Redmi 4, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}}]
+Session ID: 1d2b8c36-2476-43a3-a92d-f188cfc82631</t>
+  </si>
+  <si>
+    <t>action set text failed: Akash</t>
+  </si>
+  <si>
+    <t>Method is not implemented (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{appPackage=com.android.chrome, noReset=true, deviceName=5a0c7cb7d140, fullReset=false, platform=LINUX, deviceUDID=5a0c7cb7d140, desired={appPackage=com.android.chrome, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, noReset=true, acceptSslCerts=true, platformVersion=7.1.2, automationName=Appium, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}, udid=5a0c7cb7d140, platformName=Android, deviceName=Redmi111, fullReset=false}, acceptSslCerts=true, platformVersion=7.1.2, webStorageEnabled=false, automationName=Appium, takesScreenshot=true, javascriptEnabled=true, udid=5a0c7cb7d140, platformName=Android, deviceManufacturer=Xiaomi, deviceScreenSize=720x1280, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, locationContextEnabled=false, deviceModel=Redmi 4, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}}]
+Session ID: 1d2b8c36-2476-43a3-a92d-f188cfc82631</t>
+  </si>
+  <si>
+    <t>action set text failed: sangal</t>
+  </si>
+  <si>
+    <t>Method is not implemented (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 6 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{appPackage=com.android.chrome, noReset=true, deviceName=5a0c7cb7d140, fullReset=false, platform=LINUX, deviceUDID=5a0c7cb7d140, desired={appPackage=com.android.chrome, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, noReset=true, acceptSslCerts=true, platformVersion=7.1.2, automationName=Appium, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}, udid=5a0c7cb7d140, platformName=Android, deviceName=Redmi111, fullReset=false}, acceptSslCerts=true, platformVersion=7.1.2, webStorageEnabled=false, automationName=Appium, takesScreenshot=true, javascriptEnabled=true, udid=5a0c7cb7d140, platformName=Android, deviceManufacturer=Xiaomi, deviceScreenSize=720x1280, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, locationContextEnabled=false, deviceModel=Redmi 4, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}}]
+Session ID: 1d2b8c36-2476-43a3-a92d-f188cfc82631</t>
+  </si>
+  <si>
+    <t>action Clear text failed</t>
+  </si>
+  <si>
+    <t>Returned value cannot be converted to WebElement: {ELEMENT=7}
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: AndroidDriver</t>
+  </si>
+  <si>
+    <t>Returned value cannot be converted to WebElement: {ELEMENT=8}
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: AndroidDriver</t>
+  </si>
+  <si>
+    <t>Returned value cannot be converted to WebElement: {ELEMENT=9}
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: AndroidDriver</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 36 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Register Now')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=xpath, value=//a[contains(text(),'Register Now')]}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //h3[contains(text(),'Create New Account')] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.firstname"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.firstname}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.lastname"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.lastname}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.email}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.pass.confirm"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.pass.confirm}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin-create"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=magestore-button-sociallogin-create}</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter your email address.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: advice-required-entry-email-socialogin.email (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter your password.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: advice-required-entry-password-socialogin.pass (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter your confirm password.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: advice-required-entry-c-password-socialogin.pass.confirm (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.firstname"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.firstname}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.lastname"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.lastname}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.email}</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.pass.confirm"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.pass.confirm}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin-create"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=magestore-button-sociallogin-create}</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +2038,7 @@
         <v>255</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>147</v>
@@ -1699,7 +2077,7 @@
         <v>69</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>147</v>
@@ -1738,7 +2116,7 @@
         <v>70</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>147</v>
@@ -1777,7 +2155,7 @@
         <v>98</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>147</v>
@@ -1816,7 +2194,7 @@
         <v>185</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>147</v>
@@ -1855,7 +2233,7 @@
         <v>186</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>147</v>
@@ -1896,7 +2274,7 @@
         <v>187</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>147</v>
@@ -1935,7 +2313,7 @@
         <v>188</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>147</v>
@@ -1974,7 +2352,7 @@
         <v>190</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>147</v>
@@ -2013,7 +2391,7 @@
         <v>191</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>147</v>
@@ -2052,7 +2430,7 @@
         <v>192</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>147</v>
@@ -2091,7 +2469,7 @@
         <v>193</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>147</v>
@@ -2130,7 +2508,7 @@
         <v>194</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>147</v>
@@ -2169,7 +2547,7 @@
         <v>195</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>147</v>
@@ -2208,7 +2586,7 @@
         <v>196</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>147</v>
@@ -2247,7 +2625,7 @@
         <v>197</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>147</v>
@@ -2288,7 +2666,7 @@
         <v>198</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>147</v>
@@ -2329,7 +2707,7 @@
         <v>199</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>147</v>
@@ -2368,7 +2746,7 @@
         <v>201</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>147</v>
@@ -2407,7 +2785,7 @@
         <v>205</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>147</v>
@@ -2446,7 +2824,7 @@
         <v>206</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>147</v>
@@ -2485,7 +2863,7 @@
         <v>207</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>147</v>
@@ -2526,7 +2904,7 @@
         <v>208</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>147</v>
@@ -2567,7 +2945,7 @@
         <v>210</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>147</v>
@@ -2608,7 +2986,7 @@
         <v>211</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>147</v>
@@ -2649,7 +3027,7 @@
         <v>198</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>147</v>
@@ -2690,7 +3068,7 @@
         <v>199</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>147</v>
@@ -2729,7 +3107,7 @@
         <v>201</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>147</v>
@@ -2770,7 +3148,7 @@
         <v>212</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>147</v>
@@ -2811,7 +3189,7 @@
         <v>213</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>147</v>
@@ -2850,7 +3228,7 @@
         <v>207</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>147</v>
@@ -2891,7 +3269,7 @@
         <v>208</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>147</v>
@@ -2932,7 +3310,7 @@
         <v>198</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>147</v>
@@ -2973,7 +3351,7 @@
         <v>199</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>147</v>
@@ -3014,7 +3392,7 @@
         <v>200</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>147</v>
@@ -3053,7 +3431,7 @@
         <v>205</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>147</v>
@@ -3092,7 +3470,7 @@
         <v>206</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>147</v>
@@ -3131,7 +3509,7 @@
         <v>207</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>147</v>
@@ -3172,7 +3550,7 @@
         <v>210</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>147</v>
@@ -3213,7 +3591,7 @@
         <v>211</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>147</v>
@@ -3254,7 +3632,7 @@
         <v>198</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>147</v>
@@ -3295,7 +3673,7 @@
         <v>199</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>147</v>
@@ -3336,7 +3714,7 @@
         <v>200</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>147</v>
@@ -3377,7 +3755,7 @@
         <v>212</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>147</v>
@@ -3418,7 +3796,7 @@
         <v>213</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>147</v>
@@ -3457,7 +3835,7 @@
         <v>207</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>147</v>
@@ -3498,7 +3876,7 @@
         <v>214</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>147</v>
@@ -3539,7 +3917,7 @@
         <v>198</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>147</v>
@@ -3580,7 +3958,7 @@
         <v>199</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>147</v>
@@ -3621,7 +3999,7 @@
         <v>200</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>147</v>
@@ -3662,7 +4040,7 @@
         <v>212</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>147</v>
@@ -3703,7 +4081,7 @@
         <v>213</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>147</v>
@@ -3742,7 +4120,7 @@
         <v>207</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>147</v>
@@ -3783,7 +4161,7 @@
         <v>215</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>147</v>
@@ -3824,7 +4202,7 @@
         <v>198</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>147</v>
@@ -3865,7 +4243,7 @@
         <v>199</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>147</v>
@@ -3906,7 +4284,7 @@
         <v>200</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>147</v>
@@ -3947,7 +4325,7 @@
         <v>212</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>147</v>
@@ -3988,7 +4366,7 @@
         <v>213</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>147</v>
@@ -4027,7 +4405,7 @@
         <v>207</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>147</v>
@@ -4068,7 +4446,7 @@
         <v>215</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>147</v>
@@ -4109,7 +4487,7 @@
         <v>214</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>147</v>
@@ -4150,7 +4528,7 @@
         <v>198</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>147</v>
@@ -4191,7 +4569,7 @@
         <v>199</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>147</v>
@@ -4232,7 +4610,7 @@
         <v>200</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>147</v>
@@ -4273,7 +4651,7 @@
         <v>212</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>147</v>
@@ -4314,7 +4692,7 @@
         <v>213</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>147</v>
@@ -4353,7 +4731,7 @@
         <v>207</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>147</v>
@@ -4394,7 +4772,7 @@
         <v>216</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>147</v>
@@ -4433,7 +4811,7 @@
         <v>229</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>147</v>
@@ -4472,7 +4850,7 @@
         <v>230</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>147</v>
@@ -4511,7 +4889,7 @@
         <v>231</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>147</v>
@@ -4550,7 +4928,7 @@
         <v>234</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>147</v>
@@ -4589,7 +4967,7 @@
         <v>230</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>147</v>
@@ -4628,7 +5006,7 @@
         <v>231</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>147</v>
@@ -4669,7 +5047,7 @@
         <v>198</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>147</v>
@@ -4710,7 +5088,7 @@
         <v>199</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>147</v>
@@ -4751,7 +5129,7 @@
         <v>200</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>147</v>
@@ -4792,7 +5170,7 @@
         <v>212</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>147</v>
@@ -4833,7 +5211,7 @@
         <v>213</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>147</v>
@@ -4872,7 +5250,7 @@
         <v>207</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>147</v>
@@ -4909,7 +5287,7 @@
         <v>217</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>147</v>
@@ -4950,7 +5328,7 @@
         <v>218</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>147</v>
@@ -4989,7 +5367,7 @@
         <v>219</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>147</v>
@@ -5028,7 +5406,7 @@
         <v>220</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>147</v>
@@ -5065,7 +5443,7 @@
         <v>217</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>147</v>
@@ -5104,7 +5482,7 @@
         <v>69</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>147</v>
@@ -5143,7 +5521,7 @@
         <v>221</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>147</v>
@@ -5184,7 +5562,7 @@
         <v>222</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>147</v>
@@ -5225,7 +5603,7 @@
         <v>223</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>147</v>
@@ -5264,7 +5642,7 @@
         <v>224</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>147</v>
@@ -5305,7 +5683,7 @@
         <v>218</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>147</v>
@@ -5344,7 +5722,7 @@
         <v>219</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>147</v>
@@ -5383,7 +5761,7 @@
         <v>225</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>147</v>
@@ -5420,7 +5798,7 @@
         <v>217</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>147</v>
@@ -5459,7 +5837,7 @@
         <v>69</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>147</v>
@@ -5498,7 +5876,7 @@
         <v>70</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>147</v>
@@ -5537,7 +5915,7 @@
         <v>98</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>147</v>
@@ -5576,7 +5954,7 @@
         <v>185</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M100" s="4" t="s">
         <v>147</v>
@@ -5615,7 +5993,7 @@
         <v>186</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>147</v>
@@ -5656,7 +6034,7 @@
         <v>198</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M102" s="4" t="s">
         <v>147</v>
@@ -5697,7 +6075,7 @@
         <v>199</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M103" s="4" t="s">
         <v>147</v>
@@ -5738,7 +6116,7 @@
         <v>200</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="M104" s="4" t="s">
         <v>147</v>
@@ -5779,7 +6157,7 @@
         <v>212</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M105" s="4" t="s">
         <v>147</v>
@@ -5820,7 +6198,7 @@
         <v>213</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M106" s="4" t="s">
         <v>147</v>
@@ -5859,7 +6237,7 @@
         <v>207</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M107" s="4" t="s">
         <v>147</v>
@@ -5900,7 +6278,7 @@
         <v>251</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M108" s="4" t="s">
         <v>147</v>
@@ -5939,7 +6317,7 @@
         <v>253</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M109" s="4" t="s">
         <v>147</v>
@@ -5978,7 +6356,7 @@
         <v>237</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M110" s="4" t="s">
         <v>147</v>
@@ -6017,7 +6395,7 @@
         <v>238</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M111" s="4" t="s">
         <v>147</v>
@@ -6056,7 +6434,7 @@
         <v>240</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M112" s="4" t="s">
         <v>147</v>
@@ -6095,7 +6473,7 @@
         <v>243</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>149</v>
+        <v>282</v>
       </c>
       <c r="M113" s="4" t="s">
         <v>147</v>
